--- a/similarities/split_global/harmonic_similarity_timestamps_84.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.389127', '0:00:22.035759')]</t>
+          <t>('0:00:06.040000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:32.400000', '0:00:38.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>['C/5', 'G', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:05.708194', '0:00:10.061936')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.300000', '0:00:02.670000')]</t>
+          <t>('0:00:27.476822', '0:00:35.056893')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.200000', '0:00:12.660000')]</t>
+          <t>('0:00:10.240000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['F/A', 'C:7/G', 'F/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Gb', 'Ab', 'Db']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:12.971000', '0:00:23.861000')]</t>
+          <t>('0:04:20.880000', '0:04:22.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:03.810375', '0:00:16.004920')]</t>
+          <t>('0:01:21.770000', '0:01:27.560000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=260.88</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=3.810375']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=81.77</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A']]</t>
+          <t>['G#:maj/D#', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min', 'Eb']]</t>
+          <t>['E:maj/B', 'B:7', 'E:maj/B']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:24.640000', '0:00:37.860000')]</t>
+          <t>('0:01:52.780000', '0:02:00.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.394648', '0:00:22.321179')]</t>
+          <t>('0:01:24.960000', '0:01:31.380000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=112.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=12.394648']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=84.96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['F:maj', 'F:7/D#', 'A#:maj/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:05.746892')]</t>
+          <t>('0:00:56.440000', '0:01:05.460000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:47.280000')]</t>
+          <t>('0:00:20.780000', '0:00:31.600000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=56.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:00:47.020000', '0:00:55.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:08.180000', '0:00:21.140000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3', 'F:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:25.540000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:33.181700')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:08.340000', '0:00:10.040000')]</t>
+          <t>('0:00:05.940000', '0:00:25.280000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:00:53', '0:01:02')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=5.94</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=53.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'D']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:08.780000', '0:00:16.050000')]</t>
+          <t>('0:00:38.740000', '0:00:47.140000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:41.520000', '0:00:46.940000')]</t>
+          <t>('0:01:07.160000', '0:01:12.400000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=8.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=38.74</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>isophonics_282</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Eb', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:29.719863', '0:00:35.722222')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:00:37.280000', '0:00:40.821000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=37.28</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:30.424512', '0:00:35.962471')]</t>
+          <t>('0:00:23.600000', '0:00:40.320000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:00:32.320000', '0:00:33.880000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=30.424512']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=23.6</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=32.32</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#', 'G#']]</t>
+          <t>['A:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B', 'Gb', 'B']]</t>
+          <t>['C:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:53.540000')]</t>
+          <t>('0:00:32.189229', '0:00:49.662244')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:15.552131', '0:00:21.368730')]</t>
+          <t>('0:00:18.180000', '0:00:22.380000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-27#t=32.189229</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=15.552131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=18.18</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
